--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -350,7 +350,7 @@
   <dimension ref="A1:B901"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
